--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H2">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>5.945988377508666</v>
+        <v>2.679694403483667</v>
       </c>
       <c r="R2">
-        <v>53.513895397578</v>
+        <v>24.117249631353</v>
       </c>
       <c r="S2">
-        <v>0.001027350122490713</v>
+        <v>0.0006017104033393123</v>
       </c>
       <c r="T2">
-        <v>0.001137044914611786</v>
+        <v>0.0006280658631489104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H3">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I3">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J3">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>9.161947613227113</v>
+        <v>4.752399012838667</v>
       </c>
       <c r="R3">
-        <v>82.45752851904402</v>
+        <v>42.771591115548</v>
       </c>
       <c r="S3">
-        <v>0.001583004776515585</v>
+        <v>0.001067124640454149</v>
       </c>
       <c r="T3">
-        <v>0.001752029314582072</v>
+        <v>0.001113865664736326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H4">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I4">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J4">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>3.973578167625888</v>
+        <v>2.729684214293</v>
       </c>
       <c r="R4">
-        <v>35.76220350863299</v>
+        <v>24.567157928637</v>
       </c>
       <c r="S4">
-        <v>0.0006865563398472907</v>
+        <v>0.0006129353359979901</v>
       </c>
       <c r="T4">
-        <v>0.0007598630473954117</v>
+        <v>0.0006397824580090548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H5">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I5">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J5">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>2.3052866272765</v>
+        <v>0.8821498086555001</v>
       </c>
       <c r="R5">
-        <v>13.831719763659</v>
+        <v>5.292898851933001</v>
       </c>
       <c r="S5">
-        <v>0.00039830829603825</v>
+        <v>0.0001980818098070239</v>
       </c>
       <c r="T5">
-        <v>0.0002938916425492659</v>
+        <v>0.000137838648138282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H6">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I6">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J6">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>6.715964796205777</v>
+        <v>2.356881777414333</v>
       </c>
       <c r="R6">
-        <v>60.443683165852</v>
+        <v>21.211935996729</v>
       </c>
       <c r="S6">
-        <v>0.001160386939558102</v>
+        <v>0.0005292246321324595</v>
       </c>
       <c r="T6">
-        <v>0.001284286670845654</v>
+        <v>0.0005524051496123125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>85.851541</v>
       </c>
       <c r="I7">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J7">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>950.4178248440406</v>
+        <v>825.7540136185748</v>
       </c>
       <c r="R7">
-        <v>8553.760423596366</v>
+        <v>7431.786122567173</v>
       </c>
       <c r="S7">
-        <v>0.1642135515205957</v>
+        <v>0.1854184491886659</v>
       </c>
       <c r="T7">
-        <v>0.1817473708127403</v>
+        <v>0.1935399449421541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>85.851541</v>
       </c>
       <c r="I8">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J8">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
         <v>1464.462721594963</v>
@@ -948,10 +948,10 @@
         <v>13180.16449435467</v>
       </c>
       <c r="S8">
-        <v>0.2530304233531066</v>
+        <v>0.3288369202625248</v>
       </c>
       <c r="T8">
-        <v>0.2800476194213115</v>
+        <v>0.3432402747463324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>85.851541</v>
       </c>
       <c r="I9">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J9">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>635.1441138378278</v>
+        <v>841.1584891670464</v>
       </c>
       <c r="R9">
-        <v>5716.297024540449</v>
+        <v>7570.426402503416</v>
       </c>
       <c r="S9">
-        <v>0.1097404403982283</v>
+        <v>0.188877438088091</v>
       </c>
       <c r="T9">
-        <v>0.1214579206741577</v>
+        <v>0.1971504406834331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>85.851541</v>
       </c>
       <c r="I10">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J10">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>368.4812957633455</v>
+        <v>271.8364990288255</v>
       </c>
       <c r="R10">
-        <v>2210.887774580073</v>
+        <v>1631.018994172953</v>
       </c>
       <c r="S10">
-        <v>0.06366633775638558</v>
+        <v>0.06103936675030571</v>
       </c>
       <c r="T10">
-        <v>0.04697618594548093</v>
+        <v>0.04247529747570285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>85.851541</v>
       </c>
       <c r="I11">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J11">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>1073.492285569094</v>
+        <v>726.2785580304432</v>
       </c>
       <c r="R11">
-        <v>9661.430570121844</v>
+        <v>6536.507022273989</v>
       </c>
       <c r="S11">
-        <v>0.1854784034297647</v>
+        <v>0.163081791536031</v>
       </c>
       <c r="T11">
-        <v>0.2052827665789601</v>
+        <v>0.1702249214846773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H12">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I12">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J12">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>6.135913543825999</v>
+        <v>7.013598814428668</v>
       </c>
       <c r="R12">
-        <v>55.223221894434</v>
+        <v>63.12238932985801</v>
       </c>
       <c r="S12">
-        <v>0.001060165464615875</v>
+        <v>0.001574864419615794</v>
       </c>
       <c r="T12">
-        <v>0.001173364098371846</v>
+        <v>0.001643844905388356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H13">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I13">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J13">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>9.454596087081333</v>
+        <v>12.43851539145867</v>
       </c>
       <c r="R13">
-        <v>85.09136478373202</v>
+        <v>111.946638523128</v>
       </c>
       <c r="S13">
-        <v>0.00163356869059892</v>
+        <v>0.0027929991208725</v>
       </c>
       <c r="T13">
-        <v>0.001807992165135821</v>
+        <v>0.002915335008152959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H14">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I14">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J14">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>4.100501135927665</v>
+        <v>7.144437792698</v>
       </c>
       <c r="R14">
-        <v>36.90451022334899</v>
+        <v>64.299940134282</v>
       </c>
       <c r="S14">
-        <v>0.0007084861383522703</v>
+        <v>0.001604243581017406</v>
       </c>
       <c r="T14">
-        <v>0.00078413438909545</v>
+        <v>0.001674510900627746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H15">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I15">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J15">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>2.3789214745545</v>
+        <v>2.308862101623</v>
       </c>
       <c r="R15">
-        <v>14.273528847327</v>
+        <v>13.853172609738</v>
       </c>
       <c r="S15">
-        <v>0.0004110309528225767</v>
+        <v>0.0005184420822823485</v>
       </c>
       <c r="T15">
-        <v>0.000303279050587529</v>
+        <v>0.0003607668762185393</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H16">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I16">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J16">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>6.930484342817332</v>
+        <v>6.168697153799333</v>
       </c>
       <c r="R16">
-        <v>62.374359085356</v>
+        <v>55.51827438419399</v>
       </c>
       <c r="S16">
-        <v>0.001197451708019754</v>
+        <v>0.001385146473293849</v>
       </c>
       <c r="T16">
-        <v>0.001325309011299958</v>
+        <v>0.001445817141450331</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H17">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I17">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J17">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>261.101399206901</v>
+        <v>54.68612893465085</v>
       </c>
       <c r="R17">
-        <v>1566.608395241406</v>
+        <v>328.116773607905</v>
       </c>
       <c r="S17">
-        <v>0.04511319858484123</v>
+        <v>0.01227946464923643</v>
       </c>
       <c r="T17">
-        <v>0.03328675843466988</v>
+        <v>0.008544877537021343</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H18">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I18">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J18">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>402.3212272534314</v>
+        <v>96.98505352966335</v>
       </c>
       <c r="R18">
-        <v>2413.927363520589</v>
+        <v>581.91032117798</v>
       </c>
       <c r="S18">
-        <v>0.06951321392804463</v>
+        <v>0.02177745178754456</v>
       </c>
       <c r="T18">
-        <v>0.05129030156637684</v>
+        <v>0.01515421591319342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H19">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I19">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J19">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>174.4885380788151</v>
+        <v>55.7063009497075</v>
       </c>
       <c r="R19">
-        <v>1046.931228472891</v>
+        <v>334.237805698245</v>
       </c>
       <c r="S19">
-        <v>0.03014819565516969</v>
+        <v>0.01250853857417997</v>
       </c>
       <c r="T19">
-        <v>0.02224483604565343</v>
+        <v>0.0087042825836973</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H20">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I20">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J20">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>101.2301951735483</v>
+        <v>18.00255958780125</v>
       </c>
       <c r="R20">
-        <v>404.920780694193</v>
+        <v>72.01023835120502</v>
       </c>
       <c r="S20">
-        <v>0.01749059143887505</v>
+        <v>0.004042374151557586</v>
       </c>
       <c r="T20">
-        <v>0.008603618015252994</v>
+        <v>0.001875303908900621</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H21">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I21">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J21">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>294.9127536048673</v>
+        <v>48.09829829694417</v>
       </c>
       <c r="R21">
-        <v>1769.476521629204</v>
+        <v>288.589789781665</v>
       </c>
       <c r="S21">
-        <v>0.05095513719570711</v>
+        <v>0.01080020409437902</v>
       </c>
       <c r="T21">
-        <v>0.03759723087799171</v>
+        <v>0.007515508533757112</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H22">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I22">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J22">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>0.9602977749493333</v>
+        <v>0.403616700059889</v>
       </c>
       <c r="R22">
-        <v>8.642679974544</v>
+        <v>3.632550300539001</v>
       </c>
       <c r="S22">
-        <v>0.0001659206130394625</v>
+        <v>9.062987446322005E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001836367029658832</v>
+        <v>9.459954492380764E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H23">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I23">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J23">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>1.479686361390223</v>
+        <v>0.7158083415915556</v>
       </c>
       <c r="R23">
-        <v>13.317177252512</v>
+        <v>6.442275074324001</v>
       </c>
       <c r="S23">
-        <v>0.0002556607695992537</v>
+        <v>0.0001607307629454936</v>
       </c>
       <c r="T23">
-        <v>0.0002829588195636727</v>
+        <v>0.0001677709157157743</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H24">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I24">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J24">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>0.6417466753537777</v>
+        <v>0.4111461864256667</v>
       </c>
       <c r="R24">
-        <v>5.775720078183999</v>
+        <v>3.700315677831</v>
       </c>
       <c r="S24">
-        <v>0.0001108812334760993</v>
+        <v>9.232057854955173E-05</v>
       </c>
       <c r="T24">
-        <v>0.000122720521358599</v>
+        <v>9.636430337807104E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H25">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I25">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J25">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>0.3723117971720001</v>
+        <v>0.1328697758465</v>
       </c>
       <c r="R25">
-        <v>2.233870783032</v>
+        <v>0.7972186550790001</v>
       </c>
       <c r="S25">
-        <v>6.43281732396616E-05</v>
+        <v>2.983516564883883E-05</v>
       </c>
       <c r="T25">
-        <v>4.746452103468706E-05</v>
+        <v>2.076131525668152E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H26">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I26">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J26">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>1.084651640899555</v>
+        <v>0.3549945263141111</v>
       </c>
       <c r="R26">
-        <v>9.761864768096</v>
+        <v>3.194950736827</v>
       </c>
       <c r="S26">
-        <v>0.0001874065210677058</v>
+        <v>7.971203706438383E-05</v>
       </c>
       <c r="T26">
-        <v>0.0002074167580070032</v>
+        <v>8.320349637360048E-05</v>
       </c>
     </row>
   </sheetData>
